--- a/data/Kürzel-Hofstaate-EX-ACC-2021-06-02.xlsx
+++ b/data/Kürzel-Hofstaate-EX-ACC-2021-06-02.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorpirgie/gregor/arbeit/acdh/viecpro_import_for_upload/viecpro_import_app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oeawacat.sharepoint.com/sites/ACDH-CH_p_TheVienneseCourt_ProsopographicalPortal_ElitesRule/Shared Documents/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD21D1D-3D6D-C443-AD26-9D5384AF2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{DF942C69-16FB-2C47-952E-3D2893FBF8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935A6D5D-1EA7-B749-9F7B-BD8C512A4305}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F3721C22-EB71-44CE-B280-99536D7A8F04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F3721C22-EB71-44CE-B280-99536D7A8F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Hofstaate ACC-EX" sheetId="1" r:id="rId1"/>
     <sheet name="Hofstaat-Hierarchie (UNFERTIG)" sheetId="3" r:id="rId2"/>
     <sheet name="EXCEL-Abkürzungsliste" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="708">
   <si>
     <t>Daten-slg.</t>
   </si>
@@ -990,9 +981,6 @@
     <t>Karl von Österreich, Erzherzog</t>
   </si>
   <si>
-    <t>K (Ehzg.)</t>
-  </si>
-  <si>
     <t>12.9.1703</t>
   </si>
   <si>
@@ -1000,9 +988,6 @@
   </si>
   <si>
     <t>Karl von Österreich als Karl III., König von Spanien</t>
-  </si>
-  <si>
-    <t>K (Kg.)</t>
   </si>
   <si>
     <t>Krönung zum Spanischen König - Tod Josephs I.</t>
@@ -2282,9 +2267,111 @@
 Maria Antonia von Österreich, Erzherzogin (*1676 (Tod CF, Heirat EM)-1681, lt. Sienell eigener Hofstaat bereits)</t>
   </si>
   <si>
+    <t>JH (MA)</t>
+  </si>
+  <si>
+    <t>Kinder von F3 und Maria Anna von Spanien</t>
+  </si>
+  <si>
+    <t>JH (ML)</t>
+  </si>
+  <si>
+    <t>1630 (Heirat) bis Tod von Maria Anna (1646-05-13)</t>
+  </si>
+  <si>
+    <t>Heirat Maria Leopoldine (1648-07-02) bis Tod ML (1649-08-02)</t>
+  </si>
+  <si>
+    <t>Kinder von F3 und Maria Leopoldine von Tirol bzw. Stiefkinder von ML, da CJ einziges Kind war und alle anderen Stiefkinder waren</t>
+  </si>
+  <si>
     <t>JH (F3) gibt es zweimal: 
 1) 1646-5-14–1648-07-01, Tod von Maria Anna (1646-05-13) und Heirat Maria Leopoldine (1648-07-02), 
 2) 1648-08-03-1651-04-29, Tod ML (1649-08-02) und Heirat EG (1651-04-30)</t>
+  </si>
+  <si>
+    <t>Kinder von Leopold I. &amp; Claudia Felicitas, bis auf Maria Antonia (Tochter MMT)</t>
+  </si>
+  <si>
+    <t>Hofstaat Junge Herrschaft (Kinder Josefs I.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leopold Josef von Österreich (*29.10.1700–†4.8.1701), Erzherzog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Amalie Josepha von Österreich (*22.10.1701-1703, Ende EXCEL ==&gt; oo 5.10.1722 mit Karl Albrecht von Bayern), Erzherzogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Josefa Benedikta von Österreich (*8.12.1699-1703, Ende EXCEL ==&gt; oo 20.8.1719 mit Friedrich August II. v. Sachsen), Erzherzogin</t>
+  </si>
+  <si>
+    <t>Maria Antonia von Österreich (1669–1692)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Anna von Österreich (* 11.9.1674– † 21.12.1674)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Josepha von Österreich (*11.10.1675– † 11.7.1676)</t>
+  </si>
+  <si>
+    <t>Eleonora Maria Josepha von Österreich (*21.5.1653-oo27.2.1670 mit Kg. Polen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Anna Josepha von Österreich (*30.12.1654-oo1672 18. LJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carl Joseph (*7.8.1649/ ab 1651–1656 7. Lebensjahr)</t>
+  </si>
+  <si>
+    <t>Josef von Österreich, Erzherzog (*26.7.1678– 1685 7. Lebensjahr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karl von Österreich, Erzherzog (*1.10.1685–1692 7.  Lebensjahr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leopold Josef von Österreich, Erzherzog (*2.6.1682-†3.8.1684)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Anna von Österreich, Erzherzogin (*7.9.1683–1701 18. LJ, gest. †	14.8.1754)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Elisabeth von Österreich (*13.12.1680–1698 18. Lebensjahr, †26.8.1741)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Josefa Coletta von Österreich, Erzherzogin (*6.3.1687–†14.4.1703)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Magdalena Josefa von Österreich, Erzherzogin (*26.3.1689–1705  Ende EXCELBLATT  =&gt; †1.5.1743)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Margaretha von Österreich, Erzherzogin (*22.7.1690-†22.4.1691)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Theresia von Österreich, Erzherzogin (*22.8.1684-†28.9.1696)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Antonia von Österreich, Erzherzogin (*1676 (Tod CF, Heirat EM)-1681, lt. Sienell eigener Hofstaat bereits)</t>
+  </si>
+  <si>
+    <t>Ferdinand Wenzel von Österreich, Erzherzog (*28.9.1667-†13.1.1668)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johann Leopold (*20.2.1670-†20.2.1670), Erzherzog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Antonia von Österreich, Erzherzogin (*18.1.1669-12.3.1673 (Tod von MMT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Anna von Österreich (* 9.2.1672 - † 23.2.1672)</t>
+  </si>
+  <si>
+    <t>K6 (Ehzg.)</t>
+  </si>
+  <si>
+    <t>K6 (Kg.)</t>
+  </si>
+  <si>
+    <t>K6 (Ks.)</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2476,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2420,8 +2507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2490,13 +2583,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2640,6 +2748,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2930,8 +3065,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C65D3951-97AA-A64E-A270-C1D950071DCA}" name="Tabelle4" displayName="Tabelle4" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J118" xr:uid="{686BA786-DDFF-964A-A2D8-D20222EB4DC9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C65D3951-97AA-A64E-A270-C1D950071DCA}" name="Tabelle4" displayName="Tabelle4" ref="A1:J121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J121" xr:uid="{686BA786-DDFF-964A-A2D8-D20222EB4DC9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J118">
     <sortCondition ref="E1:E118"/>
   </sortState>
@@ -3248,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C04AEE7-9F4A-4FCB-B36D-7928244850E2}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>69</v>
@@ -3708,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>86</v>
@@ -3738,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>86</v>
@@ -4216,7 +4351,7 @@
         <v>193</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>194</v>
@@ -4228,7 +4363,7 @@
         <v>47</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="22" t="s">
@@ -4446,10 +4581,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="25" t="s">
@@ -4468,10 +4603,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>217</v>
@@ -4531,7 +4666,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>244</v>
@@ -4540,7 +4675,7 @@
         <v>1656</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="22" t="s">
@@ -4610,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>256</v>
@@ -4731,16 +4866,16 @@
         <v>37</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>276</v>
+        <v>705</v>
       </c>
       <c r="F53" s="31">
         <v>1692</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="22" t="s">
@@ -4752,25 +4887,25 @@
         <v>10</v>
       </c>
       <c r="B54" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>279</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>280</v>
+        <v>706</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>53</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="22" t="s">
@@ -4782,25 +4917,25 @@
         <v>10</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>284</v>
+        <v>707</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="22"/>
@@ -4810,25 +4945,25 @@
         <v>34</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F56" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="I56" s="22" t="s">
         <v>152</v>
@@ -4842,19 +4977,19 @@
         <v>34</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>150</v>
@@ -4870,14 +5005,14 @@
         <v>10</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -4890,25 +5025,25 @@
         <v>34</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E59" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G59" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="H59" s="27" t="s">
         <v>302</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>304</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22" t="s">
@@ -4920,29 +5055,29 @@
         <v>10</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>89</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I60" s="23"/>
       <c r="J60" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="144" x14ac:dyDescent="0.2">
@@ -4950,16 +5085,16 @@
         <v>10</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>89</v>
@@ -4968,11 +5103,11 @@
         <v>47</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -4980,25 +5115,25 @@
         <v>34</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>134</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="28" t="s">
@@ -5010,16 +5145,16 @@
         <v>34</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>240</v>
@@ -5028,7 +5163,7 @@
         <v>144</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>152</v>
@@ -5042,16 +5177,16 @@
         <v>34</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>39</v>
@@ -5070,29 +5205,29 @@
         <v>10</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" s="31" t="s">
         <v>328</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>330</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>127</v>
       </c>
       <c r="I65" s="23"/>
       <c r="J65" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5100,25 +5235,25 @@
         <v>34</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="H66" s="27" t="s">
         <v>335</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>337</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22" t="s">
@@ -5130,14 +5265,14 @@
         <v>10</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -5150,29 +5285,29 @@
         <v>10</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="G68" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="H68" s="23" t="s">
         <v>127</v>
       </c>
       <c r="I68" s="23"/>
       <c r="J68" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5180,29 +5315,29 @@
         <v>10</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F69" s="33">
         <v>1701</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I69" s="39"/>
       <c r="J69" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5210,29 +5345,29 @@
         <v>10</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F70" s="31">
         <v>1672</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5240,29 +5375,29 @@
         <v>10</v>
       </c>
       <c r="B71" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="F71" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="G71" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="H71" s="39" t="s">
         <v>360</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>362</v>
       </c>
       <c r="I71" s="39"/>
       <c r="J71" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5270,29 +5405,29 @@
         <v>34</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F72" s="35" t="s">
         <v>104</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I72" s="30"/>
       <c r="J72" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5300,29 +5435,29 @@
         <v>34</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G73" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="H73" s="27" t="s">
         <v>372</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>374</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5330,25 +5465,25 @@
         <v>34</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="H74" s="27" t="s">
         <v>379</v>
-      </c>
-      <c r="G74" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>381</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="22" t="s">
@@ -5360,29 +5495,29 @@
         <v>34</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="H75" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>387</v>
       </c>
       <c r="I75" s="30"/>
       <c r="J75" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5390,29 +5525,29 @@
         <v>10</v>
       </c>
       <c r="B76" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="E76" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="F76" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="G76" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="H76" s="23" t="s">
         <v>393</v>
-      </c>
-      <c r="G76" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>395</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5420,29 +5555,29 @@
         <v>10</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F77" s="31">
         <v>1681</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I77" s="23"/>
       <c r="J77" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="64" x14ac:dyDescent="0.2">
@@ -5450,29 +5585,29 @@
         <v>34</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H78" s="27" t="s">
         <v>403</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>405</v>
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5480,25 +5615,25 @@
         <v>34</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>83</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="22" t="s">
@@ -5510,25 +5645,25 @@
         <v>34</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="G80" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="H80" s="28" t="s">
         <v>414</v>
-      </c>
-      <c r="G80" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>416</v>
       </c>
       <c r="I80" s="22"/>
       <c r="J80" s="22" t="s">
@@ -5540,25 +5675,25 @@
         <v>34</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="H81" s="27" t="s">
         <v>420</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>422</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22" t="s">
@@ -5570,29 +5705,29 @@
         <v>34</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D82" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F82" s="35" t="s">
         <v>104</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I82" s="22"/>
       <c r="J82" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5600,29 +5735,29 @@
         <v>10</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D83" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F83" s="31">
         <v>1698</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I83" s="23"/>
       <c r="J83" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5630,25 +5765,25 @@
         <v>34</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G84" s="33" t="s">
         <v>150</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I84" s="22"/>
       <c r="J84" s="22" t="s">
@@ -5660,29 +5795,29 @@
         <v>34</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F85" s="35" t="s">
         <v>104</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5690,29 +5825,29 @@
         <v>34</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G86" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="H86" s="26" t="s">
         <v>445</v>
-      </c>
-      <c r="G86" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>447</v>
       </c>
       <c r="I86" s="22"/>
       <c r="J86" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5720,25 +5855,25 @@
         <v>34</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E87" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H87" s="27" t="s">
         <v>451</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>453</v>
       </c>
       <c r="I87" s="22"/>
       <c r="J87" s="22" t="s">
@@ -5750,25 +5885,25 @@
         <v>34</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E88" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="G88" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="H88" s="27" t="s">
         <v>457</v>
-      </c>
-      <c r="G88" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>459</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="22" t="s">
@@ -5780,29 +5915,29 @@
         <v>10</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G89" s="31" t="s">
         <v>244</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I89" s="23"/>
       <c r="J89" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5810,16 +5945,16 @@
         <v>34</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>240</v>
@@ -5828,11 +5963,11 @@
         <v>144</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I90" s="22"/>
       <c r="J90" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5840,29 +5975,29 @@
         <v>34</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F91" s="35" t="s">
         <v>104</v>
       </c>
       <c r="G91" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I91" s="22"/>
       <c r="J91" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5870,29 +6005,29 @@
         <v>10</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E92" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="G92" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="F92" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>480</v>
-      </c>
       <c r="H92" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I92" s="23"/>
       <c r="J92" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5900,25 +6035,25 @@
         <v>34</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G93" s="35" t="s">
         <v>78</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I93" s="22"/>
       <c r="J93" s="22" t="s">
@@ -5930,28 +6065,28 @@
         <v>34</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="F94" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="G94" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="H94" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="I94" s="22" t="s">
         <v>491</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>493</v>
       </c>
       <c r="J94" s="22"/>
     </row>
@@ -5960,28 +6095,28 @@
         <v>34</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="E95" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="F95" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="G95" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="H95" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="F95" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>499</v>
-      </c>
       <c r="I95" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J95" s="22"/>
     </row>
@@ -5990,16 +6125,16 @@
         <v>34</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>240</v>
@@ -6008,11 +6143,11 @@
         <v>150</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I96" s="22"/>
       <c r="J96" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6020,16 +6155,16 @@
         <v>34</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F97" s="36" t="s">
         <v>39</v>
@@ -6040,7 +6175,7 @@
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
       <c r="J97" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6048,14 +6183,14 @@
         <v>10</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -6068,16 +6203,16 @@
         <v>34</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F99" s="36" t="s">
         <v>39</v>
@@ -6088,7 +6223,7 @@
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
       <c r="J99" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -6096,29 +6231,29 @@
         <v>10</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="G100" s="31" t="s">
         <v>517</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="G100" s="31" t="s">
-        <v>519</v>
       </c>
       <c r="H100" s="23" t="s">
         <v>127</v>
       </c>
       <c r="I100" s="23"/>
       <c r="J100" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6126,14 +6261,14 @@
         <v>10</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -6146,14 +6281,14 @@
         <v>10</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -6166,14 +6301,14 @@
         <v>10</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -6186,14 +6321,14 @@
         <v>10</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
@@ -6206,14 +6341,14 @@
         <v>10</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
@@ -6226,14 +6361,14 @@
         <v>10</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C106" s="22"/>
       <c r="D106" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -6246,14 +6381,14 @@
         <v>10</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="31"/>
@@ -6266,16 +6401,16 @@
         <v>10</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="31"/>
@@ -6288,12 +6423,12 @@
         <v>10</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="51" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -6306,12 +6441,12 @@
         <v>10</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -6324,12 +6459,12 @@
         <v>10</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -6342,16 +6477,16 @@
         <v>10</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>51</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -6364,14 +6499,14 @@
         <v>10</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
@@ -6384,16 +6519,16 @@
         <v>10</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="31"/>
@@ -6406,14 +6541,14 @@
         <v>10</v>
       </c>
       <c r="B115" s="46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C115" s="44"/>
       <c r="D115" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6426,14 +6561,14 @@
         <v>10</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C116" s="44"/>
       <c r="D116" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6446,12 +6581,12 @@
         <v>34</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C117" s="48"/>
       <c r="D117" s="48"/>
       <c r="E117" s="43" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F117" s="49"/>
       <c r="G117" s="49"/>
@@ -6464,16 +6599,16 @@
         <v>34</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E118" s="50" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="31"/>
@@ -6481,6 +6616,58 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="54"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="55"/>
+    </row>
+    <row r="120" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A120" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="44"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="I120" s="57"/>
+      <c r="J120" s="55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="44"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="I121" s="57"/>
+      <c r="J121" s="55" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6517,333 +6704,333 @@
         <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="62"/>
+      <c r="D4" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="53"/>
-      <c r="D4" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="62" t="s">
         <v>572</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>574</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="9" t="s">
         <v>576</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="9" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="9" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="9" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="9" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="9" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="9" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="9" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="9" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="9" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="53"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="53"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="53"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D24" s="62" t="s">
         <v>590</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C25" s="9" t="s">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="9" t="s">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="9" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="9" t="s">
+      <c r="E27" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="9" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>563</v>
+        <v>600</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>561</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="C34" s="53"/>
+        <v>601</v>
+      </c>
+      <c r="C34" s="62"/>
       <c r="D34" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="53"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6862,351 +7049,477 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE556268-7198-5D4E-A08C-BB40780CA2BA}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="79" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="G3" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="L3" s="58"/>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>685</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>688</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>619</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="C8" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" s="13" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>626</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="C15" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="13" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="C17" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="320" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="13" customFormat="1" ht="320" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="C19" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="C20" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C21" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="C22" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C23" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="C24" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="C25" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="C26" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="C27" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="C28" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C29" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="C30" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="C31" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>662</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>614</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="H32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7442,16 +7755,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79F62864-F9F4-4554-AD28-67DDA3A691D5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
